--- a/biology/Histoire de la zoologie et de la botanique/Constant_Vanden_Berghen/Constant_Vanden_Berghen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Constant_Vanden_Berghen/Constant_Vanden_Berghen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Constant Vanden Berghen, né le 21 mai 1914 à Molenbeek-Saint-Jean (Bruxelles) et mort le 5 novembre 2004 (à 90 ans), est un botaniste belge.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Constant Vanden Berghen est né dans une famille originaire des Pays-Bas, immigrée en Belgique avant sa naissance. Adolescent il se destine déjà à l'enseignement et se dirige naturellement vers des études de régent en sciences à l'école normale de Nivelles. Diplômé en 1934, il débute comme instituteur, avant d'être nommé dans l'enseignement secondaire. Après la Seconde Guerre mondiale, il entreprend l'étude de la végétation des Grands Causses du Massif central où il se rend chaque année dès 1948. Cette étude débouche sur une thèse de doctorat qu'il présente à l'université catholique de Louvain, où il deviendra titulaire du cours de phytosociologie[1].
-Admis à la retraite à la fin des années 1970, il devient collaborateur au Jardin botanique national de Belgique qu'il fréquentera régulièrement jusqu'à son décès[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constant Vanden Berghen est né dans une famille originaire des Pays-Bas, immigrée en Belgique avant sa naissance. Adolescent il se destine déjà à l'enseignement et se dirige naturellement vers des études de régent en sciences à l'école normale de Nivelles. Diplômé en 1934, il débute comme instituteur, avant d'être nommé dans l'enseignement secondaire. Après la Seconde Guerre mondiale, il entreprend l'étude de la végétation des Grands Causses du Massif central où il se rend chaque année dès 1948. Cette étude débouche sur une thèse de doctorat qu'il présente à l'université catholique de Louvain, où il deviendra titulaire du cours de phytosociologie.
+Admis à la retraite à la fin des années 1970, il devient collaborateur au Jardin botanique national de Belgique qu'il fréquentera régulièrement jusqu'à son décès.
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Articles
-Constant Vanden Berghen est l'auteur de quelque 300 articles publiés pour la plupart dans le bulletin Les Naturalistes belges, mais aussi, entre autres, dans le Bulletin de la Société royale de botanique de Belgique.
-Ouvrages
-Genera des Lejeuneaceae, Liège, coll. « Lejeunia Mémoire » (no 6), 1948, 59 p., 2 pl.
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constant Vanden Berghen est l'auteur de quelque 300 articles publiés pour la plupart dans le bulletin Les Naturalistes belges, mais aussi, entre autres, dans le Bulletin de la Société royale de botanique de Belgique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Constant_Vanden_Berghen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constant_Vanden_Berghen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Genera des Lejeuneaceae, Liège, coll. « Lejeunia Mémoire » (no 6), 1948, 59 p., 2 pl.
 (avec Paul Reginster et Paul Heinemann) Texte explicatif de la planchette Odeigne, Bruxelles, IRSIA, coll. « Carte de la végétation de la Belgique » (no 179W), 1953, 65 p.
 (avec François Stockmans et Roger Vanhoorne) Étude botanique du gisement de tourbe de la région de Pervijze (plaine maritime belge), Bruxelles, IRScNB, coll. « Institut Royal des Sciences Naturelles de Belgique Mémoires » (no 130), 1954, 144 p., 4 pl., 1 crt.
 Hépatiques, t. 1-3, Jardin botanique de l'État, Bruxelles, coll. « Flore générale de Belgique. Bryophytes » (no I), 1955-1957, 389 p.
